--- a/uploads/sales_data_copy_copy.xlsx
+++ b/uploads/sales_data_copy_copy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/suryaganesan/vscode/ml/projects/reporter/uploads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A07A35D-0C83-014C-9011-9486E12E8B50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AA8C175-9F25-B14D-A44C-2F8DFF27A68A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1319" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1366" uniqueCount="385">
   <si>
     <t>ORDERNUMBER</t>
   </si>
@@ -1186,6 +1186,9 @@
   </si>
   <si>
     <t>S10_4698</t>
+  </si>
+  <si>
+    <t>RandomNumbers</t>
   </si>
 </sst>
 </file>
@@ -1201,12 +1204,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1227,9 +1236,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1532,7 +1542,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X99"/>
+  <dimension ref="A1:X10407"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="R86" workbookViewId="0">
       <selection activeCell="X2" sqref="X2:X99"/>
@@ -1680,7 +1690,7 @@
       </c>
       <c r="X2">
         <f t="shared" ref="X2:X33" ca="1" si="0">RANDBETWEEN(1,1000)</f>
-        <v>312</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
@@ -1749,7 +1759,7 @@
       </c>
       <c r="X3">
         <f t="shared" ca="1" si="0"/>
-        <v>728</v>
+        <v>655</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.2">
@@ -1815,7 +1825,7 @@
       </c>
       <c r="X4">
         <f t="shared" ca="1" si="0"/>
-        <v>215</v>
+        <v>558</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
@@ -1884,7 +1894,7 @@
       </c>
       <c r="X5">
         <f t="shared" ca="1" si="0"/>
-        <v>409</v>
+        <v>268</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
@@ -1953,7 +1963,7 @@
       </c>
       <c r="X6">
         <f t="shared" ca="1" si="0"/>
-        <v>377</v>
+        <v>605</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.2">
@@ -2022,7 +2032,7 @@
       </c>
       <c r="X7">
         <f t="shared" ca="1" si="0"/>
-        <v>103</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.2">
@@ -2088,7 +2098,7 @@
       </c>
       <c r="X8">
         <f t="shared" ca="1" si="0"/>
-        <v>151</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.2">
@@ -2157,7 +2167,7 @@
       </c>
       <c r="X9">
         <f t="shared" ca="1" si="0"/>
-        <v>679</v>
+        <v>365</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.2">
@@ -2232,7 +2242,7 @@
       </c>
       <c r="X10">
         <f t="shared" ca="1" si="0"/>
-        <v>534</v>
+        <v>312</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.2">
@@ -2304,7 +2314,7 @@
       </c>
       <c r="X11">
         <f t="shared" ca="1" si="0"/>
-        <v>470</v>
+        <v>988</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.2">
@@ -2373,7 +2383,7 @@
       </c>
       <c r="X12">
         <f t="shared" ca="1" si="0"/>
-        <v>932</v>
+        <v>517</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.2">
@@ -2442,7 +2452,7 @@
       </c>
       <c r="X13">
         <f t="shared" ca="1" si="0"/>
-        <v>488</v>
+        <v>536</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.2">
@@ -2511,7 +2521,7 @@
       </c>
       <c r="X14">
         <f t="shared" ca="1" si="0"/>
-        <v>709</v>
+        <v>924</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.2">
@@ -2580,7 +2590,7 @@
       </c>
       <c r="X15">
         <f t="shared" ca="1" si="0"/>
-        <v>196</v>
+        <v>247</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.2">
@@ -2649,7 +2659,7 @@
       </c>
       <c r="X16">
         <f t="shared" ca="1" si="0"/>
-        <v>285</v>
+        <v>293</v>
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.2">
@@ -2718,7 +2728,7 @@
       </c>
       <c r="X17">
         <f t="shared" ca="1" si="0"/>
-        <v>885</v>
+        <v>677</v>
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.2">
@@ -2787,7 +2797,7 @@
       </c>
       <c r="X18">
         <f t="shared" ca="1" si="0"/>
-        <v>303</v>
+        <v>851</v>
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.2">
@@ -2856,7 +2866,7 @@
       </c>
       <c r="X19">
         <f t="shared" ca="1" si="0"/>
-        <v>839</v>
+        <v>741</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.2">
@@ -2925,7 +2935,7 @@
       </c>
       <c r="X20">
         <f t="shared" ca="1" si="0"/>
-        <v>122</v>
+        <v>999</v>
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.2">
@@ -3000,7 +3010,7 @@
       </c>
       <c r="X21">
         <f t="shared" ca="1" si="0"/>
-        <v>936</v>
+        <v>966</v>
       </c>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.2">
@@ -3069,7 +3079,7 @@
       </c>
       <c r="X22">
         <f t="shared" ca="1" si="0"/>
-        <v>263</v>
+        <v>200</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.2">
@@ -3138,7 +3148,7 @@
       </c>
       <c r="X23">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.2">
@@ -3207,11 +3217,11 @@
       </c>
       <c r="X24">
         <f t="shared" ca="1" si="0"/>
-        <v>357</v>
+        <v>219</v>
       </c>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
+      <c r="A25" s="2">
         <v>10417</v>
       </c>
       <c r="B25">
@@ -3276,7 +3286,7 @@
       </c>
       <c r="X25">
         <f t="shared" ca="1" si="0"/>
-        <v>889</v>
+        <v>220</v>
       </c>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.2">
@@ -3345,7 +3355,7 @@
       </c>
       <c r="X26">
         <f t="shared" ca="1" si="0"/>
-        <v>22</v>
+        <v>750</v>
       </c>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.2">
@@ -3414,7 +3424,7 @@
       </c>
       <c r="X27">
         <f t="shared" ca="1" si="0"/>
-        <v>347</v>
+        <v>93</v>
       </c>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.2">
@@ -3483,7 +3493,7 @@
       </c>
       <c r="X28">
         <f t="shared" ca="1" si="0"/>
-        <v>194</v>
+        <v>634</v>
       </c>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.2">
@@ -3552,7 +3562,7 @@
       </c>
       <c r="X29">
         <f t="shared" ca="1" si="0"/>
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.2">
@@ -3621,7 +3631,7 @@
       </c>
       <c r="X30">
         <f t="shared" ca="1" si="0"/>
-        <v>568</v>
+        <v>416</v>
       </c>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.2">
@@ -3693,7 +3703,7 @@
       </c>
       <c r="X31">
         <f t="shared" ca="1" si="0"/>
-        <v>295</v>
+        <v>316</v>
       </c>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.2">
@@ -3765,7 +3775,7 @@
       </c>
       <c r="X32">
         <f t="shared" ca="1" si="0"/>
-        <v>848</v>
+        <v>639</v>
       </c>
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.2">
@@ -3834,7 +3844,7 @@
       </c>
       <c r="X33">
         <f t="shared" ca="1" si="0"/>
-        <v>586</v>
+        <v>113</v>
       </c>
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.2">
@@ -3903,7 +3913,7 @@
       </c>
       <c r="X34">
         <f t="shared" ref="X34:X65" ca="1" si="1">RANDBETWEEN(1,1000)</f>
-        <v>28</v>
+        <v>97</v>
       </c>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.2">
@@ -3972,7 +3982,7 @@
       </c>
       <c r="X35">
         <f t="shared" ca="1" si="1"/>
-        <v>62</v>
+        <v>598</v>
       </c>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.2">
@@ -4041,7 +4051,7 @@
       </c>
       <c r="X36">
         <f t="shared" ca="1" si="1"/>
-        <v>166</v>
+        <v>441</v>
       </c>
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.2">
@@ -4110,7 +4120,7 @@
       </c>
       <c r="X37">
         <f t="shared" ca="1" si="1"/>
-        <v>167</v>
+        <v>462</v>
       </c>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.2">
@@ -4179,7 +4189,7 @@
       </c>
       <c r="X38">
         <f t="shared" ca="1" si="1"/>
-        <v>946</v>
+        <v>523</v>
       </c>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.2">
@@ -4251,7 +4261,7 @@
       </c>
       <c r="X39">
         <f t="shared" ca="1" si="1"/>
-        <v>270</v>
+        <v>98</v>
       </c>
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.2">
@@ -4326,7 +4336,7 @@
       </c>
       <c r="X40">
         <f t="shared" ca="1" si="1"/>
-        <v>805</v>
+        <v>553</v>
       </c>
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.2">
@@ -4395,7 +4405,7 @@
       </c>
       <c r="X41">
         <f t="shared" ca="1" si="1"/>
-        <v>555</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.2">
@@ -4464,7 +4474,7 @@
       </c>
       <c r="X42">
         <f t="shared" ca="1" si="1"/>
-        <v>600</v>
+        <v>800</v>
       </c>
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.2">
@@ -4533,7 +4543,7 @@
       </c>
       <c r="X43">
         <f t="shared" ca="1" si="1"/>
-        <v>105</v>
+        <v>314</v>
       </c>
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.2">
@@ -4602,7 +4612,7 @@
       </c>
       <c r="X44">
         <f t="shared" ca="1" si="1"/>
-        <v>886</v>
+        <v>586</v>
       </c>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.2">
@@ -4671,7 +4681,7 @@
       </c>
       <c r="X45">
         <f t="shared" ca="1" si="1"/>
-        <v>938</v>
+        <v>967</v>
       </c>
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.2">
@@ -4737,7 +4747,7 @@
       </c>
       <c r="X46">
         <f t="shared" ca="1" si="1"/>
-        <v>696</v>
+        <v>150</v>
       </c>
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.2">
@@ -4812,7 +4822,7 @@
       </c>
       <c r="X47">
         <f t="shared" ca="1" si="1"/>
-        <v>528</v>
+        <v>690</v>
       </c>
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.2">
@@ -4881,7 +4891,7 @@
       </c>
       <c r="X48">
         <f t="shared" ca="1" si="1"/>
-        <v>18</v>
+        <v>38</v>
       </c>
     </row>
     <row r="49" spans="1:24" x14ac:dyDescent="0.2">
@@ -4950,7 +4960,7 @@
       </c>
       <c r="X49">
         <f t="shared" ca="1" si="1"/>
-        <v>718</v>
+        <v>618</v>
       </c>
     </row>
     <row r="50" spans="1:24" x14ac:dyDescent="0.2">
@@ -5016,7 +5026,7 @@
       </c>
       <c r="X50">
         <f t="shared" ca="1" si="1"/>
-        <v>902</v>
+        <v>161</v>
       </c>
     </row>
     <row r="51" spans="1:24" x14ac:dyDescent="0.2">
@@ -5091,7 +5101,7 @@
       </c>
       <c r="X51">
         <f t="shared" ca="1" si="1"/>
-        <v>453</v>
+        <v>304</v>
       </c>
     </row>
     <row r="52" spans="1:24" x14ac:dyDescent="0.2">
@@ -5160,11 +5170,11 @@
       </c>
       <c r="X52">
         <f t="shared" ca="1" si="1"/>
-        <v>960</v>
+        <v>771</v>
       </c>
     </row>
     <row r="53" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A53" s="1">
+      <c r="A53" s="2">
         <v>10424</v>
       </c>
       <c r="B53">
@@ -5229,7 +5239,7 @@
       </c>
       <c r="X53">
         <f t="shared" ca="1" si="1"/>
-        <v>33</v>
+        <v>559</v>
       </c>
     </row>
     <row r="54" spans="1:24" x14ac:dyDescent="0.2">
@@ -5298,7 +5308,7 @@
       </c>
       <c r="X54">
         <f t="shared" ca="1" si="1"/>
-        <v>62</v>
+        <v>102</v>
       </c>
     </row>
     <row r="55" spans="1:24" x14ac:dyDescent="0.2">
@@ -5373,7 +5383,7 @@
       </c>
       <c r="X55">
         <f t="shared" ca="1" si="1"/>
-        <v>21</v>
+        <v>692</v>
       </c>
     </row>
     <row r="56" spans="1:24" x14ac:dyDescent="0.2">
@@ -5442,7 +5452,7 @@
       </c>
       <c r="X56">
         <f t="shared" ca="1" si="1"/>
-        <v>777</v>
+        <v>112</v>
       </c>
     </row>
     <row r="57" spans="1:24" x14ac:dyDescent="0.2">
@@ -5511,7 +5521,7 @@
       </c>
       <c r="X57">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>898</v>
       </c>
     </row>
     <row r="58" spans="1:24" x14ac:dyDescent="0.2">
@@ -5577,7 +5587,7 @@
       </c>
       <c r="X58">
         <f t="shared" ca="1" si="1"/>
-        <v>258</v>
+        <v>335</v>
       </c>
     </row>
     <row r="59" spans="1:24" x14ac:dyDescent="0.2">
@@ -5646,7 +5656,7 @@
       </c>
       <c r="X59">
         <f t="shared" ca="1" si="1"/>
-        <v>787</v>
+        <v>382</v>
       </c>
     </row>
     <row r="60" spans="1:24" x14ac:dyDescent="0.2">
@@ -5715,7 +5725,7 @@
       </c>
       <c r="X60">
         <f t="shared" ca="1" si="1"/>
-        <v>949</v>
+        <v>821</v>
       </c>
     </row>
     <row r="61" spans="1:24" x14ac:dyDescent="0.2">
@@ -5784,7 +5794,7 @@
       </c>
       <c r="X61">
         <f t="shared" ca="1" si="1"/>
-        <v>287</v>
+        <v>681</v>
       </c>
     </row>
     <row r="62" spans="1:24" x14ac:dyDescent="0.2">
@@ -5850,7 +5860,7 @@
       </c>
       <c r="X62">
         <f t="shared" ca="1" si="1"/>
-        <v>634</v>
+        <v>235</v>
       </c>
     </row>
     <row r="63" spans="1:24" x14ac:dyDescent="0.2">
@@ -5922,7 +5932,7 @@
       </c>
       <c r="X63">
         <f t="shared" ca="1" si="1"/>
-        <v>16</v>
+        <v>68</v>
       </c>
     </row>
     <row r="64" spans="1:24" x14ac:dyDescent="0.2">
@@ -5997,7 +6007,7 @@
       </c>
       <c r="X64">
         <f t="shared" ca="1" si="1"/>
-        <v>409</v>
+        <v>133</v>
       </c>
     </row>
     <row r="65" spans="1:24" x14ac:dyDescent="0.2">
@@ -6066,7 +6076,7 @@
       </c>
       <c r="X65">
         <f t="shared" ca="1" si="1"/>
-        <v>841</v>
+        <v>508</v>
       </c>
     </row>
     <row r="66" spans="1:24" x14ac:dyDescent="0.2">
@@ -6135,7 +6145,7 @@
       </c>
       <c r="X66">
         <f t="shared" ref="X66:X99" ca="1" si="2">RANDBETWEEN(1,1000)</f>
-        <v>961</v>
+        <v>786</v>
       </c>
     </row>
     <row r="67" spans="1:24" x14ac:dyDescent="0.2">
@@ -6204,7 +6214,7 @@
       </c>
       <c r="X67">
         <f t="shared" ca="1" si="2"/>
-        <v>300</v>
+        <v>873</v>
       </c>
     </row>
     <row r="68" spans="1:24" x14ac:dyDescent="0.2">
@@ -6273,7 +6283,7 @@
       </c>
       <c r="X68">
         <f t="shared" ca="1" si="2"/>
-        <v>538</v>
+        <v>38</v>
       </c>
     </row>
     <row r="69" spans="1:24" x14ac:dyDescent="0.2">
@@ -6342,7 +6352,7 @@
       </c>
       <c r="X69">
         <f t="shared" ca="1" si="2"/>
-        <v>916</v>
+        <v>850</v>
       </c>
     </row>
     <row r="70" spans="1:24" x14ac:dyDescent="0.2">
@@ -6411,7 +6421,7 @@
       </c>
       <c r="X70">
         <f t="shared" ca="1" si="2"/>
-        <v>143</v>
+        <v>550</v>
       </c>
     </row>
     <row r="71" spans="1:24" x14ac:dyDescent="0.2">
@@ -6480,7 +6490,7 @@
       </c>
       <c r="X71">
         <f t="shared" ca="1" si="2"/>
-        <v>595</v>
+        <v>520</v>
       </c>
     </row>
     <row r="72" spans="1:24" x14ac:dyDescent="0.2">
@@ -6549,7 +6559,7 @@
       </c>
       <c r="X72">
         <f t="shared" ca="1" si="2"/>
-        <v>50</v>
+        <v>26</v>
       </c>
     </row>
     <row r="73" spans="1:24" x14ac:dyDescent="0.2">
@@ -6618,7 +6628,7 @@
       </c>
       <c r="X73">
         <f t="shared" ca="1" si="2"/>
-        <v>802</v>
+        <v>462</v>
       </c>
     </row>
     <row r="74" spans="1:24" x14ac:dyDescent="0.2">
@@ -6690,7 +6700,7 @@
       </c>
       <c r="X74">
         <f t="shared" ca="1" si="2"/>
-        <v>563</v>
+        <v>847</v>
       </c>
     </row>
     <row r="75" spans="1:24" x14ac:dyDescent="0.2">
@@ -6765,7 +6775,7 @@
       </c>
       <c r="X75">
         <f t="shared" ca="1" si="2"/>
-        <v>293</v>
+        <v>127</v>
       </c>
     </row>
     <row r="76" spans="1:24" x14ac:dyDescent="0.2">
@@ -6837,7 +6847,7 @@
       </c>
       <c r="X76">
         <f t="shared" ca="1" si="2"/>
-        <v>33</v>
+        <v>441</v>
       </c>
     </row>
     <row r="77" spans="1:24" x14ac:dyDescent="0.2">
@@ -6906,7 +6916,7 @@
       </c>
       <c r="X77">
         <f t="shared" ca="1" si="2"/>
-        <v>366</v>
+        <v>619</v>
       </c>
     </row>
     <row r="78" spans="1:24" x14ac:dyDescent="0.2">
@@ -6975,11 +6985,11 @@
       </c>
       <c r="X78">
         <f t="shared" ca="1" si="2"/>
-        <v>171</v>
+        <v>797</v>
       </c>
     </row>
     <row r="79" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A79" s="1">
+      <c r="A79" s="2">
         <v>10417</v>
       </c>
       <c r="B79">
@@ -7044,7 +7054,7 @@
       </c>
       <c r="X79">
         <f t="shared" ca="1" si="2"/>
-        <v>279</v>
+        <v>364</v>
       </c>
     </row>
     <row r="80" spans="1:24" x14ac:dyDescent="0.2">
@@ -7113,7 +7123,7 @@
       </c>
       <c r="X80">
         <f t="shared" ca="1" si="2"/>
-        <v>859</v>
+        <v>37</v>
       </c>
     </row>
     <row r="81" spans="1:24" x14ac:dyDescent="0.2">
@@ -7188,7 +7198,7 @@
       </c>
       <c r="X81">
         <f t="shared" ca="1" si="2"/>
-        <v>352</v>
+        <v>753</v>
       </c>
     </row>
     <row r="82" spans="1:24" x14ac:dyDescent="0.2">
@@ -7257,7 +7267,7 @@
       </c>
       <c r="X82">
         <f t="shared" ca="1" si="2"/>
-        <v>702</v>
+        <v>772</v>
       </c>
     </row>
     <row r="83" spans="1:24" x14ac:dyDescent="0.2">
@@ -7326,7 +7336,7 @@
       </c>
       <c r="X83">
         <f t="shared" ca="1" si="2"/>
-        <v>232</v>
+        <v>491</v>
       </c>
     </row>
     <row r="84" spans="1:24" x14ac:dyDescent="0.2">
@@ -7392,7 +7402,7 @@
       </c>
       <c r="X84">
         <f t="shared" ca="1" si="2"/>
-        <v>455</v>
+        <v>695</v>
       </c>
     </row>
     <row r="85" spans="1:24" x14ac:dyDescent="0.2">
@@ -7461,7 +7471,7 @@
       </c>
       <c r="X85">
         <f t="shared" ca="1" si="2"/>
-        <v>91</v>
+        <v>952</v>
       </c>
     </row>
     <row r="86" spans="1:24" x14ac:dyDescent="0.2">
@@ -7530,7 +7540,7 @@
       </c>
       <c r="X86">
         <f t="shared" ca="1" si="2"/>
-        <v>82</v>
+        <v>861</v>
       </c>
     </row>
     <row r="87" spans="1:24" x14ac:dyDescent="0.2">
@@ -7599,7 +7609,7 @@
       </c>
       <c r="X87">
         <f t="shared" ca="1" si="2"/>
-        <v>245</v>
+        <v>961</v>
       </c>
     </row>
     <row r="88" spans="1:24" x14ac:dyDescent="0.2">
@@ -7665,7 +7675,7 @@
       </c>
       <c r="X88">
         <f t="shared" ca="1" si="2"/>
-        <v>51</v>
+        <v>146</v>
       </c>
     </row>
     <row r="89" spans="1:24" x14ac:dyDescent="0.2">
@@ -7737,7 +7747,7 @@
       </c>
       <c r="X89">
         <f t="shared" ca="1" si="2"/>
-        <v>225</v>
+        <v>518</v>
       </c>
     </row>
     <row r="90" spans="1:24" x14ac:dyDescent="0.2">
@@ -7812,7 +7822,7 @@
       </c>
       <c r="X90">
         <f t="shared" ca="1" si="2"/>
-        <v>743</v>
+        <v>822</v>
       </c>
     </row>
     <row r="91" spans="1:24" x14ac:dyDescent="0.2">
@@ -7884,7 +7894,7 @@
       </c>
       <c r="X91">
         <f t="shared" ca="1" si="2"/>
-        <v>465</v>
+        <v>469</v>
       </c>
     </row>
     <row r="92" spans="1:24" x14ac:dyDescent="0.2">
@@ -7953,7 +7963,7 @@
       </c>
       <c r="X92">
         <f t="shared" ca="1" si="2"/>
-        <v>954</v>
+        <v>40</v>
       </c>
     </row>
     <row r="93" spans="1:24" x14ac:dyDescent="0.2">
@@ -8022,7 +8032,7 @@
       </c>
       <c r="X93">
         <f t="shared" ca="1" si="2"/>
-        <v>452</v>
+        <v>695</v>
       </c>
     </row>
     <row r="94" spans="1:24" x14ac:dyDescent="0.2">
@@ -8091,7 +8101,7 @@
       </c>
       <c r="X94">
         <f t="shared" ca="1" si="2"/>
-        <v>356</v>
+        <v>477</v>
       </c>
     </row>
     <row r="95" spans="1:24" x14ac:dyDescent="0.2">
@@ -8160,7 +8170,7 @@
       </c>
       <c r="X95">
         <f t="shared" ca="1" si="2"/>
-        <v>228</v>
+        <v>212</v>
       </c>
     </row>
     <row r="96" spans="1:24" x14ac:dyDescent="0.2">
@@ -8229,7 +8239,7 @@
       </c>
       <c r="X96">
         <f t="shared" ca="1" si="2"/>
-        <v>670</v>
+        <v>837</v>
       </c>
     </row>
     <row r="97" spans="1:24" x14ac:dyDescent="0.2">
@@ -8298,7 +8308,7 @@
       </c>
       <c r="X97">
         <f t="shared" ca="1" si="2"/>
-        <v>949</v>
+        <v>361</v>
       </c>
     </row>
     <row r="98" spans="1:24" x14ac:dyDescent="0.2">
@@ -8367,7 +8377,7 @@
       </c>
       <c r="X98">
         <f t="shared" ca="1" si="2"/>
-        <v>101</v>
+        <v>614</v>
       </c>
     </row>
     <row r="99" spans="1:24" x14ac:dyDescent="0.2">
@@ -8436,7 +8446,328 @@
       </c>
       <c r="X99">
         <f t="shared" ca="1" si="2"/>
-        <v>804</v>
+        <v>379</v>
+      </c>
+    </row>
+    <row r="10104" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G10104" s="1"/>
+    </row>
+    <row r="10108" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G10108" s="1"/>
+    </row>
+    <row r="10113" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G10113" s="1"/>
+    </row>
+    <row r="10121" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G10121" s="1"/>
+    </row>
+    <row r="10127" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G10127" s="1"/>
+    </row>
+    <row r="10135" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G10135" s="1"/>
+    </row>
+    <row r="10141" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G10141" s="1"/>
+    </row>
+    <row r="10146" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G10146" s="1"/>
+    </row>
+    <row r="10151" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G10151" s="1"/>
+    </row>
+    <row r="10160" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G10160" s="1"/>
+    </row>
+    <row r="10164" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G10164" s="1"/>
+    </row>
+    <row r="10169" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G10169" s="1"/>
+    </row>
+    <row r="10175" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G10175" s="1"/>
+    </row>
+    <row r="10181" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G10181" s="1"/>
+    </row>
+    <row r="10184" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G10184" s="1"/>
+    </row>
+    <row r="10189" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G10189" s="1"/>
+    </row>
+    <row r="10195" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G10195" s="1"/>
+    </row>
+    <row r="10202" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G10202" s="1"/>
+    </row>
+    <row r="10207" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G10207" s="1"/>
+    </row>
+    <row r="10211" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G10211" s="1"/>
+    </row>
+    <row r="10212" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G10212" s="1"/>
+    </row>
+    <row r="10216" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G10216" s="1"/>
+    </row>
+    <row r="10224" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G10224" s="1"/>
+    </row>
+    <row r="10229" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G10229" s="1"/>
+    </row>
+    <row r="10237" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G10237" s="1"/>
+    </row>
+    <row r="10238" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G10238" s="1"/>
+    </row>
+    <row r="10246" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G10246" s="1"/>
+    </row>
+    <row r="10252" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G10252" s="1"/>
+    </row>
+    <row r="10259" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G10259" s="1"/>
+    </row>
+    <row r="10264" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G10264" s="1"/>
+    </row>
+    <row r="10271" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G10271" s="1"/>
+    </row>
+    <row r="10276" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G10276" s="1"/>
+    </row>
+    <row r="10281" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G10281" s="1"/>
+    </row>
+    <row r="10286" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G10286" s="1"/>
+    </row>
+    <row r="10292" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G10292" s="1"/>
+    </row>
+    <row r="10299" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G10299" s="1"/>
+    </row>
+    <row r="10300" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G10300" s="1"/>
+    </row>
+    <row r="10305" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G10305" s="1"/>
+    </row>
+    <row r="10309" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G10309" s="1"/>
+    </row>
+    <row r="10310" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G10310" s="1"/>
+    </row>
+    <row r="10313" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G10313" s="1"/>
+    </row>
+    <row r="10319" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G10319" s="1"/>
+    </row>
+    <row r="10323" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G10323" s="1"/>
+    </row>
+    <row r="10330" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G10330" s="1"/>
+    </row>
+    <row r="10334" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G10334" s="1"/>
+    </row>
+    <row r="10340" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G10340" s="1"/>
+    </row>
+    <row r="10342" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G10342" s="1"/>
+    </row>
+    <row r="10348" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G10348" s="1"/>
+    </row>
+    <row r="10358" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G10358" s="1"/>
+    </row>
+    <row r="10362" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G10362" s="1"/>
+    </row>
+    <row r="10370" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G10370" s="1"/>
+    </row>
+    <row r="10375" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G10375" s="1"/>
+    </row>
+    <row r="10376" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G10376" s="1"/>
+    </row>
+    <row r="10382" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G10382" s="1"/>
+    </row>
+    <row r="10389" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G10389" s="1"/>
+    </row>
+    <row r="10392" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G10392" s="1"/>
+    </row>
+    <row r="10403" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="G10403" s="1"/>
+    </row>
+    <row r="10404" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="G10404" s="1"/>
+    </row>
+    <row r="10405" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A10405" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="10406" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A10406" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10406" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10406" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10406" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10406" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10406" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10406" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10406" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10406" t="s">
+        <v>8</v>
+      </c>
+      <c r="J10406" t="s">
+        <v>9</v>
+      </c>
+      <c r="K10406" t="s">
+        <v>10</v>
+      </c>
+      <c r="L10406" t="s">
+        <v>11</v>
+      </c>
+      <c r="M10406" t="s">
+        <v>12</v>
+      </c>
+      <c r="N10406" t="s">
+        <v>13</v>
+      </c>
+      <c r="O10406" t="s">
+        <v>14</v>
+      </c>
+      <c r="P10406" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q10406" t="s">
+        <v>16</v>
+      </c>
+      <c r="R10406" t="s">
+        <v>17</v>
+      </c>
+      <c r="S10406" t="s">
+        <v>18</v>
+      </c>
+      <c r="T10406" t="s">
+        <v>19</v>
+      </c>
+      <c r="U10406" t="s">
+        <v>20</v>
+      </c>
+      <c r="V10406" t="s">
+        <v>21</v>
+      </c>
+      <c r="W10406" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10407" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A10407" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10407" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10407" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10407" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10407" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10407" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10407" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10407" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10407" t="s">
+        <v>8</v>
+      </c>
+      <c r="J10407" t="s">
+        <v>9</v>
+      </c>
+      <c r="K10407" t="s">
+        <v>10</v>
+      </c>
+      <c r="L10407" t="s">
+        <v>11</v>
+      </c>
+      <c r="M10407" t="s">
+        <v>12</v>
+      </c>
+      <c r="N10407" t="s">
+        <v>13</v>
+      </c>
+      <c r="O10407" t="s">
+        <v>14</v>
+      </c>
+      <c r="P10407" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q10407" t="s">
+        <v>16</v>
+      </c>
+      <c r="R10407" t="s">
+        <v>17</v>
+      </c>
+      <c r="S10407" t="s">
+        <v>18</v>
+      </c>
+      <c r="T10407" t="s">
+        <v>19</v>
+      </c>
+      <c r="U10407" t="s">
+        <v>20</v>
+      </c>
+      <c r="V10407" t="s">
+        <v>21</v>
+      </c>
+      <c r="W10407" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
